--- a/vertx-pin/zero-battery/src/main/resources/plugin/battery/oob/modulat/11000_ZERO-F_a94f83ae-7320-4358-a372-a683c3eece07.xlsx
+++ b/vertx-pin/zero-battery/src/main/resources/plugin/battery/oob/modulat/11000_ZERO-F_a94f83ae-7320-4358-a372-a683c3eece07.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-env/exec-toolkit/configuration/modulat/zero-battery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0626A4F9-3BAE-CE48-8E99-95DF4AA95F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBF6D62-31C3-C54E-A99D-AB3AE7F46321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>key</t>
   </si>
@@ -111,111 +111,131 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>基础层</t>
+    <t>ZERO-F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a94f83ae-7320-4358-a372-a683c3eece07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOCK_ZERO_F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z-FOUNDATION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>signName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>signIssuer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorized</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bagId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可证名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>License发证机构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否授权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>块风格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>块图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>块排序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>块编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>块名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包关联ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>块主键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块块相关信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_BLOCK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zero Resource Management</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ZERO-F</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zero Framework Foundation</t>
+    <t>资源管理器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a94f83ae-7320-4358-a372-a683c3eece07</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLOCK_ZERO_F</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z-FOUNDATION</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>signName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>signIssuer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>version</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>authorized</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bagId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>许可证名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>License发证机构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否授权</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>块风格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>块图标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>块排序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>块编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>块名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>包关联ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>块主键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块块相关信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B_BLOCK</t>
+    <t>入口模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>entry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>entryId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口菜单ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.resource</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -293,7 +313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -330,15 +350,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -362,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,16 +403,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -721,20 +726,20 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="54.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="39.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="2"/>
@@ -763,6 +768,8 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
@@ -790,7 +797,13 @@
         <v>8</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>24</v>
+        <v>46</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -819,32 +832,44 @@
         <v>17</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" s="8" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F5" s="5">
         <v>11000</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" s="8"/>
-      <c r="I5" s="8" t="s">
-        <v>26</v>
+      <c r="I5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -852,53 +877,53 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="J10" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -906,16 +931,16 @@
         <v>0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>18</v>
@@ -927,19 +952,19 @@
         <v>17</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C2:I2"/>
     <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C2:K2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
